--- a/FASE 1/DOCUMENTACIÓN PROYECTO/Carta Gantt.xlsx
+++ b/FASE 1/DOCUMENTACIÓN PROYECTO/Carta Gantt.xlsx
@@ -30,7 +30,7 @@
     <t>Nombre Participantes:</t>
   </si>
   <si>
-    <t>Exequiel Albornoz, Jairo Marín, Jeffrey Ramírez, Benjamín Ordenes</t>
+    <t>Exequiel Albornoz, Jairo Marín, Jeffrey Ramírez, Benjamín Ordenes, Carlos González</t>
   </si>
   <si>
     <t>Fecha:</t>
